--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -40,12 +40,13 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>Propriétaire de la campagne</t>
+      <t>Propriétaire de campagne</t>
     </r>
   </si>
   <si>
@@ -63,6 +64,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -110,6 +112,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -121,6 +124,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -447,7 +451,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,12 +463,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
@@ -701,7 +699,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:H13"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Propriétaire de la campagne" dataDxfId="7"/>
+    <tableColumn id="1" name="Propriétaire de campagne" dataDxfId="7"/>
     <tableColumn id="2" name="  Nom de campagne" dataDxfId="6"/>
     <tableColumn id="3" name="Date de lancement" dataDxfId="5"/>
     <tableColumn id="4" name="Type de campagne" dataDxfId="4"/>

--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -439,6 +439,17 @@
         <family val="2"/>
       </rPr>
       <t>Expérience client</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 000</t>
     </r>
   </si>
 </sst>
@@ -1143,8 +1154,8 @@
       <c r="F4" s="2">
         <v>5632</v>
       </c>
-      <c r="G4" s="3">
-        <v>10000</v>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H4" s="3">
         <v>362</v>
@@ -1195,8 +1206,8 @@
       <c r="F6" s="2">
         <v>136</v>
       </c>
-      <c r="G6" s="3">
-        <v>10000</v>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="3">
         <v>285</v>

--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/maquinl_microsoft_com/Documents/Desktop/Source files/MS-4004_4005/ms-4004/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY24\ILT_Course\MSU120732_ILT_May_update\MS-4004_Copilot\10_DTP\fr-FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C882D5-4C38-481C-8CE9-8F2AA36DC726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2340" windowWidth="43935" windowHeight="16605" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId3"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,458 +36,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Propriétaire de campagne</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Nom de campagne</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Date de lancement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Type de campagne</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Budget</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Revenue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nombre total d’utilisateurs ciblés</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Utilisateurs engagés</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Halima, Yakubu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>E-mail de fin janvier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Marketing digital</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kovaleva, Anna</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Panneaux d’affichage - Petit format</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Marketing de marque</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Smith, Avery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Panneaux d’affichage - Grand format</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Glazkov, Ilya</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Revue de produits 3x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expérience client</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lawson, Andre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Utilisateurs ciblés - Groupe 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cartier, Christian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Barden, Malik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conférence sectorielle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Macedo, Beatriz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Utilisateurs ciblés - Groupe 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>E-mail de février - Nord</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>E-mail de février - Sud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>E-mail de février - Ouest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Connors, Morgan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Revue de produits 5x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Halima, Yakubu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Panneaux d’affichage - Petit format</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Marketing digital</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Marketing de marque</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expérience client</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>10 000</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+  <si>
+    <t>Propriétaire de la campagne</t>
+  </si>
+  <si>
+    <t>Nom de la campagne</t>
+  </si>
+  <si>
+    <t>Date de lancement</t>
+  </si>
+  <si>
+    <t>Type de campagne</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Recettes</t>
+  </si>
+  <si>
+    <t>Nombre total d’utilisateurs ciblés</t>
+  </si>
+  <si>
+    <t>Utilisateurs engagés</t>
+  </si>
+  <si>
+    <t>Halima, Yakubu</t>
+  </si>
+  <si>
+    <t>E-mail de fin janvier</t>
+  </si>
+  <si>
+    <t>Marketing numérique</t>
+  </si>
+  <si>
+    <t>Kovaleva, Anna</t>
+  </si>
+  <si>
+    <t>Panneaux d’affichage - Petit format</t>
+  </si>
+  <si>
+    <t>Marketing de marque</t>
+  </si>
+  <si>
+    <t>Smith, Avery</t>
+  </si>
+  <si>
+    <t>Panneaux d’affichage - Grand format</t>
+  </si>
+  <si>
+    <t>Glazkov, Ilya</t>
+  </si>
+  <si>
+    <t>Revue de produits 3x</t>
+  </si>
+  <si>
+    <t>Expérience client</t>
+  </si>
+  <si>
+    <t>Lawson, Andre</t>
+  </si>
+  <si>
+    <t>Utilisateurs ciblés - Groupe 1</t>
+  </si>
+  <si>
+    <t>Cartier, Christian</t>
+  </si>
+  <si>
+    <t>Barden, Malik</t>
+  </si>
+  <si>
+    <t>Conférence sectorielle</t>
+  </si>
+  <si>
+    <t>Macedo, Beatriz</t>
+  </si>
+  <si>
+    <t>Utilisateurs ciblés - Groupe 2</t>
+  </si>
+  <si>
+    <t>E-mail de février - Nord</t>
+  </si>
+  <si>
+    <t>E-mail de février - Sud</t>
+  </si>
+  <si>
+    <t>E-mail de février - Ouest</t>
+  </si>
+  <si>
+    <t>Connors, Morgan</t>
+  </si>
+  <si>
+    <t>Revue de produits 5x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -507,30 +165,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -538,15 +174,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -559,142 +190,23 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
-    <dxf/>
     <dxf>
-      <numFmt numFmtId="177" formatCode="d\-mmm"/>
-    </dxf>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </horizontal>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999799847602844"/>
-          <bgColor theme="4" tint="0.7999799847602844"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -707,17 +219,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{154C6DCB-6958-4899-9C09-8774FB5A4F75}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:H13" xr:uid="{154C6DCB-6958-4899-9C09-8774FB5A4F75}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Propriétaire de campagne" dataDxfId="7"/>
-    <tableColumn id="2" name="  Nom de campagne" dataDxfId="6"/>
-    <tableColumn id="3" name="Date de lancement" dataDxfId="5"/>
-    <tableColumn id="4" name="Type de campagne" dataDxfId="4"/>
-    <tableColumn id="5" name="Budget" dataDxfId="3"/>
-    <tableColumn id="6" name="Revenue" dataDxfId="2"/>
-    <tableColumn id="7" name="Nombre total d’utilisateurs ciblés" dataDxfId="1"/>
-    <tableColumn id="8" name="Utilisateurs engagés" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{91A075CA-6A14-47CB-A0E7-88D8D4438B32}" name="Propriétaire de la campagne" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F1F005D8-1E29-4CDC-A62A-6488761D6B3F}" name="Nom de la campagne" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{05A95148-2D16-4023-A9CB-D63756879CF7}" name="Date de lancement" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{79C47BBC-C7A1-4CE2-AE0D-CAD8BBFAD2AC}" name="Type de campagne" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A696211D-75CE-47A5-BB6F-8D75562B37BB}" name="Budget" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{21043E89-C9B0-4157-8A32-0F75EEA8E151}" name="Recettes" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{66CCB887-FE9E-4C0A-B3B4-C1FD37A3FE68}" name="Nombre total d’utilisateurs ciblés" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B7E40D89-5A03-4C2A-9726-D3598E7F3FD5}" name="Utilisateurs engagés" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1039,25 +551,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,9 +596,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1094,7 +607,7 @@
         <v>44953</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>500</v>
@@ -1109,18 +622,18 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>44955</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>250</v>
@@ -1135,7 +648,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +659,7 @@
         <v>44960</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>4500</v>
@@ -1154,14 +667,14 @@
       <c r="F4" s="2">
         <v>5632</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
+      <c r="G4" s="3">
+        <v>10000</v>
       </c>
       <c r="H4" s="3">
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1172,7 +685,7 @@
         <v>44942</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>2750</v>
@@ -1187,7 +700,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +711,7 @@
         <v>44990</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>5800</v>
@@ -1206,14 +719,14 @@
       <c r="F6" s="2">
         <v>136</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
+      <c r="G6" s="3">
+        <v>10000</v>
       </c>
       <c r="H6" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +752,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1250,7 +763,7 @@
         <v>44980</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>600</v>
@@ -1265,7 +778,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1276,7 +789,7 @@
         <v>44982</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>800</v>
@@ -1291,9 +804,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1302,7 +815,7 @@
         <v>44968</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>500</v>
@@ -1317,9 +830,9 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1328,7 +841,7 @@
         <v>44998</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>500</v>
@@ -1343,7 +856,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +882,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1397,8 +910,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>